--- a/Översikt HANINGE.xlsx
+++ b/Översikt HANINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44525</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>44825</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44519</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>44525</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>43865</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1253,7 +1253,7 @@
         <v>44139</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>44463</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>44018</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>45139</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>43438</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43438</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43906</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44966</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>45139</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43364</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>44125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>44630</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>45014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43627</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>43913</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>43951</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>44018</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>44208</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>44526</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44580</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>44796</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>44806</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>44818</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>43391</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>43476</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43495</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43657</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>43727</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>43731</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43807</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43816</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43857</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43858</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43858</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>43896</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>43899</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>43906</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>43913</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44067</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44166</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44168</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44208</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44208</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44208</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>44258</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44300</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>44369</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>44407</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5060,7 +5060,7 @@
         <v>44417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
         <v>44425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>44440</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         <v>44460</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>44476</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>44476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>44476</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>44526</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>44526</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>44526</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>44586</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44643</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>44643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>44676</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>44676</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>44694</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>44761</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>44806</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>44825</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44825</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>44825</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>44956</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>44966</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>45033</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>45048</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>45070</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>45085</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>45089</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>45126</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>

--- a/Översikt HANINGE.xlsx
+++ b/Översikt HANINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44525</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>44825</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44519</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>44525</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>43865</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1253,7 +1253,7 @@
         <v>44139</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>44463</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,14 +1426,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 32532-2020</t>
+          <t>A 34417-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44018</v>
+        <v>45139</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,25 +1445,20 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G11" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
         <v>3</v>
       </c>
-      <c r="I11" t="n">
-        <v>2</v>
-      </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1478,12 +1473,107 @@
         <v>2</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
+        <v>6</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Porslinsblå spindling
+Barrviolspindling
+Dropptaggsvamp
+Kornknutmossa
+Sårläka
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 34417-2023.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 34417-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 34417-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 34417-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 34417-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 34417-2023.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 32532-2020</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>44018</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>5</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Talltita
@@ -1492,117 +1582,28 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 32532-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 32532-2020.png")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 32532-2020.docx")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 32532-2020.docx")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 32532-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 32532-2020.docx")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 34417-2023</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45139</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>2</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Porslinsblå spindling
-Barrviolspindling
-Dropptaggsvamp
-Kornknutmossa
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 34417-2023.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 34417-2023.png")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 34417-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 34417-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 34417-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 34417-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -1616,7 +1617,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1704,7 +1705,7 @@
         <v>43438</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1792,7 +1793,7 @@
         <v>43438</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1880,7 +1881,7 @@
         <v>43906</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1967,7 +1968,7 @@
         <v>44966</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2054,7 +2055,7 @@
         <v>45139</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2141,7 +2142,7 @@
         <v>43364</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2227,7 +2228,7 @@
         <v>44125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2313,7 +2314,7 @@
         <v>44630</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2399,7 +2400,7 @@
         <v>45014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2485,7 +2486,7 @@
         <v>43627</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2570,7 +2571,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2660,7 +2661,7 @@
         <v>43913</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2750,7 +2751,7 @@
         <v>43951</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2835,7 +2836,7 @@
         <v>44018</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2925,7 +2926,7 @@
         <v>44208</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3014,7 +3015,7 @@
         <v>44526</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3099,7 +3100,7 @@
         <v>44580</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3184,7 +3185,7 @@
         <v>44796</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3269,7 +3270,7 @@
         <v>44806</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3359,7 +3360,7 @@
         <v>44818</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3444,7 +3445,7 @@
         <v>43391</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3501,7 +3502,7 @@
         <v>43476</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3563,7 +3564,7 @@
         <v>43495</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3620,7 +3621,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3682,7 +3683,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3739,7 +3740,7 @@
         <v>43657</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3801,7 +3802,7 @@
         <v>43727</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3858,7 +3859,7 @@
         <v>43731</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3915,7 +3916,7 @@
         <v>43807</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3972,7 +3973,7 @@
         <v>43816</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4029,7 +4030,7 @@
         <v>43857</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4086,7 +4087,7 @@
         <v>43858</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4143,7 +4144,7 @@
         <v>43858</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4200,7 +4201,7 @@
         <v>43896</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4257,7 +4258,7 @@
         <v>43899</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4314,7 +4315,7 @@
         <v>43906</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4371,7 +4372,7 @@
         <v>43913</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4428,7 +4429,7 @@
         <v>44067</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4485,7 +4486,7 @@
         <v>44166</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4542,7 +4543,7 @@
         <v>44168</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4599,7 +4600,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4661,7 +4662,7 @@
         <v>44208</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4718,7 +4719,7 @@
         <v>44208</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4775,7 +4776,7 @@
         <v>44208</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4832,7 +4833,7 @@
         <v>44258</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4889,7 +4890,7 @@
         <v>44300</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4946,7 +4947,7 @@
         <v>44369</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5003,7 +5004,7 @@
         <v>44407</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5060,7 +5061,7 @@
         <v>44417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5117,7 +5118,7 @@
         <v>44425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5174,7 +5175,7 @@
         <v>44440</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5236,7 +5237,7 @@
         <v>44460</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5293,7 +5294,7 @@
         <v>44476</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5355,7 +5356,7 @@
         <v>44476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5417,7 +5418,7 @@
         <v>44476</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5479,7 +5480,7 @@
         <v>44526</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5536,7 +5537,7 @@
         <v>44526</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5593,7 +5594,7 @@
         <v>44526</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5650,7 +5651,7 @@
         <v>44586</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5707,7 +5708,7 @@
         <v>44643</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5764,7 +5765,7 @@
         <v>44643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5821,7 +5822,7 @@
         <v>44676</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5883,7 +5884,7 @@
         <v>44676</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5945,7 +5946,7 @@
         <v>44694</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6002,7 +6003,7 @@
         <v>44761</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6059,7 +6060,7 @@
         <v>44806</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6121,7 +6122,7 @@
         <v>44825</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6183,7 +6184,7 @@
         <v>44825</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6245,7 +6246,7 @@
         <v>44825</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6307,7 +6308,7 @@
         <v>44956</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6364,7 +6365,7 @@
         <v>44966</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6421,7 +6422,7 @@
         <v>45033</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6478,7 +6479,7 @@
         <v>45048</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6535,7 +6536,7 @@
         <v>45070</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6592,7 +6593,7 @@
         <v>45085</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6649,7 +6650,7 @@
         <v>45089</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6706,7 +6707,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6763,7 +6764,7 @@
         <v>45126</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>

--- a/Översikt HANINGE.xlsx
+++ b/Översikt HANINGE.xlsx
@@ -565,14 +565,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 66380-2021</t>
+          <t>A 34417-2023</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>44518</v>
+        <v>45139</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>10.3</v>
+        <v>3.8</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J2" t="n">
         <v>5</v>
@@ -600,24 +600,128 @@
         <v>1</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>6</v>
+      </c>
+      <c r="P2" t="n">
         <v>1</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
+        <v>20</v>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Porslinsblå spindling
+Barrviolspindling
+Dvärgbägarlav
+Leptoporus erubescens
+Spillkråka
+Vedtrappmossa
+Bronshjon
+Dropptaggsvamp
+Fällmossa
+Grön sköldmossa
+Guldlockmossa
+Kornknutmossa
+Rödgul trumpetsvamp
+Stubbspretmossa
+Svavelriska
+Sårläka
+Vågbandad barkbock
+Vanlig groda
+Blåsippa
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 34417-2023.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 34417-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 34417-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 34417-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 34417-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 34417-2023.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 66380-2021</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>44518</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>7</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P3" t="n">
         <v>2</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q3" t="n">
         <v>17</v>
       </c>
-      <c r="R2" s="2" t="inlineStr">
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Ryl
 Knärot
@@ -638,96 +742,96 @@
 Lopplummer</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 66380-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 66380-2021.png")</f>
         <v/>
       </c>
-      <c r="U2">
+      <c r="U3">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/knärot/A 66380-2021.png")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 66380-2021.docx")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 66380-2021.docx")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 66380-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 66380-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>A 25567-2023</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B4" s="1" t="n">
         <v>45089</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="C4" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Övriga Aktiebolag</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="G4" t="n">
         <v>10.9</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H4" t="n">
         <v>4</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I4" t="n">
         <v>10</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J4" t="n">
         <v>2</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>2</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>14</v>
       </c>
-      <c r="R3" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Granticka
 Vedtrappmossa
@@ -745,87 +849,87 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 25567-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 25567-2023.png")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 25567-2023.docx")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 25567-2023.docx")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 25567-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 25567-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>A 67868-2021</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B5" s="1" t="n">
         <v>44525</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
+      <c r="C5" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H5" t="n">
         <v>4</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I5" t="n">
         <v>7</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J5" t="n">
         <v>4</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>4</v>
       </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>13</v>
       </c>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Gränsticka
 Spillkråka
@@ -842,87 +946,87 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 67868-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 67868-2021.png")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 67868-2021.docx")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 67868-2021.docx")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 67868-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 67868-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>A 40859-2022</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B6" s="1" t="n">
         <v>44825</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+      <c r="C6" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>7.8</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H6" t="n">
         <v>3</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I6" t="n">
         <v>8</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J6" t="n">
         <v>4</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>4</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>12</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Granticka
 Spillkråka
@@ -938,87 +1042,87 @@
 Thomsons trägnagare</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 40859-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 40859-2022.png")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 40859-2022.docx")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 40859-2022.docx")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 40859-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 40859-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>A 66797-2021</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B7" s="1" t="n">
         <v>44519</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
+      <c r="C7" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>3</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>2</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J7" t="n">
         <v>6</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K7" t="n">
         <v>3</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>9</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P7" t="n">
         <v>3</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q7" t="n">
         <v>11</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Gulbrunt nejlikfly
 Korkmusslingsmal
@@ -1033,87 +1137,87 @@
 Större aspvedbock</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 66797-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 66797-2021.png")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 66797-2021.docx")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 66797-2021.docx")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 66797-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 66797-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 67894-2021</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>44525</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+      <c r="C8" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>5.1</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H8" t="n">
         <v>2</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I8" t="n">
         <v>4</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J8" t="n">
         <v>6</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>6</v>
       </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>10</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Grönhjon
 Kortskaftad ärgspik
@@ -1127,87 +1231,87 @@
 Stor revmossa</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 67894-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 67894-2021.png")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 67894-2021.docx")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 67894-2021.docx")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 67894-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 67894-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 6703-2020</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>43865</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C9" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>2.3</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H9" t="n">
         <v>4</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I9" t="n">
         <v>2</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J9" t="n">
         <v>3</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>1</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>4</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P9" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q9" t="n">
         <v>7</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Ask
 Gulsparv
@@ -1218,87 +1322,87 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 6703-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 6703-2020.png")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 6703-2020.docx")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 6703-2020.docx")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 6703-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 6703-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 57469-2020</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>44139</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C10" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>12.8</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I10" t="n">
         <v>6</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>6</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Bronshjon
 Grön sköldmossa
@@ -1308,87 +1412,87 @@
 Vågbandad barkbock</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 57469-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 57469-2020.png")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 57469-2020.docx")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 57469-2020.docx")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 57469-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 57469-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 52616-2021</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>44463</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C11" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>6.4</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>2</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>5</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>6</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Björksplintborre
 Grön sköldmossa
@@ -1398,118 +1502,28 @@
 Vanlig groda</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 52616-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 52616-2021.png")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 52616-2021.docx")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 52616-2021.docx")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 52616-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 52616-2021.docx")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 34417-2023</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45139</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>6</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Porslinsblå spindling
-Barrviolspindling
-Dropptaggsvamp
-Kornknutmossa
-Sårläka
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 34417-2023.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 34417-2023.png")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 34417-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 34417-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 34417-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 34417-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -1523,7 +1537,7 @@
         <v>44018</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1617,7 +1631,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1705,7 +1719,7 @@
         <v>43438</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1793,7 +1807,7 @@
         <v>43438</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1881,7 +1895,7 @@
         <v>43906</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1968,7 +1982,7 @@
         <v>44966</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2055,7 +2069,7 @@
         <v>45139</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2142,7 +2156,7 @@
         <v>43364</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2228,7 +2242,7 @@
         <v>44125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2314,7 +2328,7 @@
         <v>44630</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2400,7 +2414,7 @@
         <v>45014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2486,7 +2500,7 @@
         <v>43627</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2571,7 +2585,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2661,7 +2675,7 @@
         <v>43913</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2751,7 +2765,7 @@
         <v>43951</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2836,7 +2850,7 @@
         <v>44018</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2926,7 +2940,7 @@
         <v>44208</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3015,7 +3029,7 @@
         <v>44526</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3100,7 +3114,7 @@
         <v>44580</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3185,7 +3199,7 @@
         <v>44796</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3270,7 +3284,7 @@
         <v>44806</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3360,7 +3374,7 @@
         <v>44818</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3445,7 +3459,7 @@
         <v>43391</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3502,7 +3516,7 @@
         <v>43476</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3564,7 +3578,7 @@
         <v>43495</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3621,7 +3635,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3683,7 +3697,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3740,7 +3754,7 @@
         <v>43657</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3802,7 +3816,7 @@
         <v>43727</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3859,7 +3873,7 @@
         <v>43731</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3916,7 +3930,7 @@
         <v>43807</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3973,7 +3987,7 @@
         <v>43816</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4030,7 +4044,7 @@
         <v>43857</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4087,7 +4101,7 @@
         <v>43858</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4144,7 +4158,7 @@
         <v>43858</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4201,7 +4215,7 @@
         <v>43896</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4258,7 +4272,7 @@
         <v>43899</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4315,7 +4329,7 @@
         <v>43906</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4372,7 +4386,7 @@
         <v>43913</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4429,7 +4443,7 @@
         <v>44067</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4486,7 +4500,7 @@
         <v>44166</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4543,7 +4557,7 @@
         <v>44168</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4600,7 +4614,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4662,7 +4676,7 @@
         <v>44208</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4719,7 +4733,7 @@
         <v>44208</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4776,7 +4790,7 @@
         <v>44208</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4833,7 +4847,7 @@
         <v>44258</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4890,7 +4904,7 @@
         <v>44300</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4947,7 +4961,7 @@
         <v>44369</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5004,7 +5018,7 @@
         <v>44407</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5061,7 +5075,7 @@
         <v>44417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5118,7 +5132,7 @@
         <v>44425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5175,7 +5189,7 @@
         <v>44440</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5237,7 +5251,7 @@
         <v>44460</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5294,7 +5308,7 @@
         <v>44476</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5356,7 +5370,7 @@
         <v>44476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5418,7 +5432,7 @@
         <v>44476</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5480,7 +5494,7 @@
         <v>44526</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5537,7 +5551,7 @@
         <v>44526</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5594,7 +5608,7 @@
         <v>44526</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5651,7 +5665,7 @@
         <v>44586</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5708,7 +5722,7 @@
         <v>44643</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5765,7 +5779,7 @@
         <v>44643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5822,7 +5836,7 @@
         <v>44676</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5884,7 +5898,7 @@
         <v>44676</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5946,7 +5960,7 @@
         <v>44694</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6003,7 +6017,7 @@
         <v>44761</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6060,7 +6074,7 @@
         <v>44806</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6122,7 +6136,7 @@
         <v>44825</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6184,7 +6198,7 @@
         <v>44825</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6246,7 +6260,7 @@
         <v>44825</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6308,7 +6322,7 @@
         <v>44956</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6365,7 +6379,7 @@
         <v>44966</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6422,7 +6436,7 @@
         <v>45033</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6479,7 +6493,7 @@
         <v>45048</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6536,7 +6550,7 @@
         <v>45070</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6593,7 +6607,7 @@
         <v>45085</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6650,7 +6664,7 @@
         <v>45089</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6707,7 +6721,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6764,7 +6778,7 @@
         <v>45126</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>

--- a/Översikt HANINGE.xlsx
+++ b/Översikt HANINGE.xlsx
@@ -572,7 +572,7 @@
         <v>45139</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -597,7 +597,7 @@
         <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -609,18 +609,17 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>Porslinsblå spindling
-Barrviolspindling
+          <t>Barrviolspindling
 Dvärgbägarlav
 Leptoporus erubescens
 Spillkråka
@@ -676,7 +675,7 @@
         <v>44518</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +780,7 @@
         <v>45089</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -884,7 +883,7 @@
         <v>44525</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +980,7 @@
         <v>44825</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1076,7 @@
         <v>44519</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1172,7 +1171,7 @@
         <v>44525</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1266,7 +1265,7 @@
         <v>43865</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1357,7 +1356,7 @@
         <v>44139</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1447,7 +1446,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1536,7 @@
         <v>44018</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1631,7 +1630,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1719,7 +1718,7 @@
         <v>43438</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1807,7 +1806,7 @@
         <v>43438</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1895,7 +1894,7 @@
         <v>43906</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1982,7 +1981,7 @@
         <v>44966</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2069,7 +2068,7 @@
         <v>45139</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2156,7 +2155,7 @@
         <v>43364</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2242,7 +2241,7 @@
         <v>44125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2328,7 +2327,7 @@
         <v>44630</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2414,7 +2413,7 @@
         <v>45014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2500,7 +2499,7 @@
         <v>43627</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2585,7 +2584,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2675,7 +2674,7 @@
         <v>43913</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2765,7 +2764,7 @@
         <v>43951</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2850,7 +2849,7 @@
         <v>44018</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2940,7 +2939,7 @@
         <v>44208</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3029,7 +3028,7 @@
         <v>44526</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3114,7 +3113,7 @@
         <v>44580</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3199,7 +3198,7 @@
         <v>44796</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3284,7 +3283,7 @@
         <v>44806</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3374,7 +3373,7 @@
         <v>44818</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3459,7 +3458,7 @@
         <v>43391</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3516,7 +3515,7 @@
         <v>43476</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3578,7 +3577,7 @@
         <v>43495</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3635,7 +3634,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3697,7 +3696,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3754,7 +3753,7 @@
         <v>43657</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3816,7 +3815,7 @@
         <v>43727</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3873,7 +3872,7 @@
         <v>43731</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3930,7 +3929,7 @@
         <v>43807</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3987,7 +3986,7 @@
         <v>43816</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4044,7 +4043,7 @@
         <v>43857</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4101,7 +4100,7 @@
         <v>43858</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4158,7 +4157,7 @@
         <v>43858</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4215,7 +4214,7 @@
         <v>43896</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4272,7 +4271,7 @@
         <v>43899</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4329,7 +4328,7 @@
         <v>43906</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4386,7 +4385,7 @@
         <v>43913</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4443,7 +4442,7 @@
         <v>44067</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4500,7 +4499,7 @@
         <v>44166</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4557,7 +4556,7 @@
         <v>44168</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4614,7 +4613,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4676,7 +4675,7 @@
         <v>44208</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4733,7 +4732,7 @@
         <v>44208</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4790,7 +4789,7 @@
         <v>44208</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4847,7 +4846,7 @@
         <v>44258</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4904,7 +4903,7 @@
         <v>44300</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4961,7 +4960,7 @@
         <v>44369</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5018,7 +5017,7 @@
         <v>44407</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5075,7 +5074,7 @@
         <v>44417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5132,7 +5131,7 @@
         <v>44425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5189,7 +5188,7 @@
         <v>44440</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5251,7 +5250,7 @@
         <v>44460</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5308,7 +5307,7 @@
         <v>44476</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5370,7 +5369,7 @@
         <v>44476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5432,7 +5431,7 @@
         <v>44476</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5494,7 +5493,7 @@
         <v>44526</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5551,7 +5550,7 @@
         <v>44526</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5608,7 +5607,7 @@
         <v>44526</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5665,7 +5664,7 @@
         <v>44586</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5722,7 +5721,7 @@
         <v>44643</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5779,7 +5778,7 @@
         <v>44643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5836,7 +5835,7 @@
         <v>44676</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5898,7 +5897,7 @@
         <v>44676</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5960,7 +5959,7 @@
         <v>44694</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6017,7 +6016,7 @@
         <v>44761</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6074,7 +6073,7 @@
         <v>44806</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6136,7 +6135,7 @@
         <v>44825</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6198,7 +6197,7 @@
         <v>44825</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6260,7 +6259,7 @@
         <v>44825</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6322,7 +6321,7 @@
         <v>44956</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6379,7 +6378,7 @@
         <v>44966</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6436,7 +6435,7 @@
         <v>45033</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6493,7 +6492,7 @@
         <v>45048</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6550,7 +6549,7 @@
         <v>45070</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6607,7 +6606,7 @@
         <v>45085</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6664,7 +6663,7 @@
         <v>45089</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6721,7 +6720,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6778,7 +6777,7 @@
         <v>45126</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>

--- a/Översikt HANINGE.xlsx
+++ b/Översikt HANINGE.xlsx
@@ -572,7 +572,7 @@
         <v>45139</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44518</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45089</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>44525</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44825</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44519</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44525</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>43865</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44139</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44018</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>43438</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
         <v>43438</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>43906</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>44966</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         <v>45139</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43364</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>44125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>44630</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
         <v>45014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>43627</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>43913</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43951</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>44018</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44208</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>44526</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>44580</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>44796</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44806</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>44818</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>43391</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>43476</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>43495</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43657</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43727</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43731</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43807</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43816</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43857</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43858</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43858</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>43896</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43899</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>43906</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43913</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>44067</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>44166</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>44168</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>44208</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>44208</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>44208</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>44258</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
         <v>44300</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         <v>44369</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>44407</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>44417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>44425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>44440</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>44460</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>44476</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>44476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>44476</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>44526</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         <v>44526</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>44526</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>44586</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>44643</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>44643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>44676</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5897,7 +5897,7 @@
         <v>44676</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>44694</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>44761</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>44806</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         <v>44825</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44825</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>44825</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>44956</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>44966</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>45033</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>45048</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>45070</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>45085</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>45089</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>45126</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>

--- a/Översikt HANINGE.xlsx
+++ b/Översikt HANINGE.xlsx
@@ -565,14 +565,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 34417-2023</t>
+          <t>A 66380-2021</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45139</v>
+        <v>44518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -585,22 +585,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.8</v>
+        <v>10.3</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J2" t="n">
         <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -609,118 +609,15 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
-        <is>
-          <t>Barrviolspindling
-Dvärgbägarlav
-Leptoporus erubescens
-Spillkråka
-Vedtrappmossa
-Bronshjon
-Dropptaggsvamp
-Fällmossa
-Grön sköldmossa
-Guldlockmossa
-Kornknutmossa
-Rödgul trumpetsvamp
-Stubbspretmossa
-Svavelriska
-Sårläka
-Vågbandad barkbock
-Vanlig groda
-Blåsippa
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 34417-2023.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 34417-2023.png")</f>
-        <v/>
-      </c>
-      <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 34417-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 34417-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 34417-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 34417-2023.docx")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 66380-2021</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>44518</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>45179</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>7</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>17</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Ryl
 Knärot
@@ -741,32 +638,133 @@
 Lopplummer</t>
         </is>
       </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 66380-2021.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 66380-2021.png")</f>
+        <v/>
+      </c>
+      <c r="U2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/knärot/A 66380-2021.png")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 66380-2021.docx")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 66380-2021.docx")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 66380-2021.docx")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 66380-2021.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 34417-2023</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45139</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>17</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Barrviolspindling
+Leptoporus erubescens
+Spillkråka
+Vedtrappmossa
+Bronshjon
+Dropptaggsvamp
+Fällmossa
+Grön sköldmossa
+Guldlockmossa
+Kornknutmossa
+Rödgul trumpetsvamp
+Stubbspretmossa
+Svavelriska
+Sårläka
+Vågbandad barkbock
+Blåsippa
+Revlummer</t>
+        </is>
+      </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 66380-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 34417-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 66380-2021.png")</f>
-        <v/>
-      </c>
-      <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/knärot/A 66380-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 34417-2023.png")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 66380-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 34417-2023.docx")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 66380-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 34417-2023.docx")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 66380-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 34417-2023.docx")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 66380-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 34417-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -780,7 +778,7 @@
         <v>45089</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +881,7 @@
         <v>44525</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +978,7 @@
         <v>44825</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1076,7 +1074,7 @@
         <v>44519</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1171,7 +1169,7 @@
         <v>44525</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1265,7 +1263,7 @@
         <v>43865</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1354,7 @@
         <v>44139</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1446,7 +1444,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1536,7 +1534,7 @@
         <v>44018</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1630,7 +1628,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1718,7 +1716,7 @@
         <v>43438</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1806,7 +1804,7 @@
         <v>43438</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1894,7 +1892,7 @@
         <v>43906</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1981,7 +1979,7 @@
         <v>44966</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2068,7 +2066,7 @@
         <v>45139</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2155,7 +2153,7 @@
         <v>43364</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2241,7 +2239,7 @@
         <v>44125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2327,7 +2325,7 @@
         <v>44630</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2413,7 +2411,7 @@
         <v>45014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2499,7 +2497,7 @@
         <v>43627</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2584,7 +2582,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2674,7 +2672,7 @@
         <v>43913</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2764,7 +2762,7 @@
         <v>43951</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2849,7 +2847,7 @@
         <v>44018</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2939,7 +2937,7 @@
         <v>44208</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3028,7 +3026,7 @@
         <v>44526</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3113,7 +3111,7 @@
         <v>44580</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3198,7 +3196,7 @@
         <v>44796</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3283,7 +3281,7 @@
         <v>44806</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3373,7 +3371,7 @@
         <v>44818</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3458,7 +3456,7 @@
         <v>43391</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3515,7 +3513,7 @@
         <v>43476</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3577,7 +3575,7 @@
         <v>43495</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3634,7 +3632,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3696,7 +3694,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3753,7 +3751,7 @@
         <v>43657</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3815,7 +3813,7 @@
         <v>43727</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3872,7 +3870,7 @@
         <v>43731</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3929,7 +3927,7 @@
         <v>43807</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3986,7 +3984,7 @@
         <v>43816</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4043,7 +4041,7 @@
         <v>43857</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4100,7 +4098,7 @@
         <v>43858</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4157,7 +4155,7 @@
         <v>43858</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4214,7 +4212,7 @@
         <v>43896</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4271,7 +4269,7 @@
         <v>43899</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4328,7 +4326,7 @@
         <v>43906</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4385,7 +4383,7 @@
         <v>43913</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4442,7 +4440,7 @@
         <v>44067</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4499,7 +4497,7 @@
         <v>44166</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4556,7 +4554,7 @@
         <v>44168</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4613,7 +4611,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4675,7 +4673,7 @@
         <v>44208</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4732,7 +4730,7 @@
         <v>44208</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4789,7 +4787,7 @@
         <v>44208</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4846,7 +4844,7 @@
         <v>44258</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4903,7 +4901,7 @@
         <v>44300</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4960,7 +4958,7 @@
         <v>44369</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5017,7 +5015,7 @@
         <v>44407</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5074,7 +5072,7 @@
         <v>44417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5131,7 +5129,7 @@
         <v>44425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5188,7 +5186,7 @@
         <v>44440</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5250,7 +5248,7 @@
         <v>44460</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5307,7 +5305,7 @@
         <v>44476</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5369,7 +5367,7 @@
         <v>44476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5431,7 +5429,7 @@
         <v>44476</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5493,7 +5491,7 @@
         <v>44526</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5550,7 +5548,7 @@
         <v>44526</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5607,7 +5605,7 @@
         <v>44526</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5664,7 +5662,7 @@
         <v>44586</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5721,7 +5719,7 @@
         <v>44643</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5778,7 +5776,7 @@
         <v>44643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5835,7 +5833,7 @@
         <v>44676</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5897,7 +5895,7 @@
         <v>44676</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5959,7 +5957,7 @@
         <v>44694</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6016,7 +6014,7 @@
         <v>44761</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6073,7 +6071,7 @@
         <v>44806</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6135,7 +6133,7 @@
         <v>44825</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6197,7 +6195,7 @@
         <v>44825</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6259,7 +6257,7 @@
         <v>44825</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6321,7 +6319,7 @@
         <v>44956</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6378,7 +6376,7 @@
         <v>44966</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6435,7 +6433,7 @@
         <v>45033</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6492,7 +6490,7 @@
         <v>45048</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6549,7 +6547,7 @@
         <v>45070</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6606,7 +6604,7 @@
         <v>45085</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6663,7 +6661,7 @@
         <v>45089</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6720,7 +6718,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6777,7 +6775,7 @@
         <v>45126</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>

--- a/Översikt HANINGE.xlsx
+++ b/Översikt HANINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45139</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>45089</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44525</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -978,7 +978,7 @@
         <v>44825</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
         <v>44519</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>44525</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>43865</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>44139</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>44018</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>43438</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43438</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43906</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44966</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>45139</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>43364</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         <v>44125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44630</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>45014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>43627</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43913</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43951</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>44018</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44208</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>44526</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>44580</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>44796</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>44806</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44818</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43391</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43476</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43495</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43657</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>43727</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
         <v>43731</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>43807</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>43816</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43857</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4098,7 +4098,7 @@
         <v>43858</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>43858</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
         <v>43896</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         <v>43899</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>43906</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4383,7 +4383,7 @@
         <v>43913</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>44067</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>44166</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         <v>44168</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>44208</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>44208</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>44208</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4844,7 +4844,7 @@
         <v>44258</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4901,7 +4901,7 @@
         <v>44300</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4958,7 +4958,7 @@
         <v>44369</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5015,7 +5015,7 @@
         <v>44407</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>44417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>44425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>44440</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>44460</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>44476</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>44476</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>44526</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>44526</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>44526</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>44586</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>44643</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>44643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>44676</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>44676</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>44694</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>44761</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>44806</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>44825</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>44825</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>44825</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>44956</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>44966</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
         <v>45033</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         <v>45048</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>45070</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>45085</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>45089</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>45126</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>

--- a/Översikt HANINGE.xlsx
+++ b/Översikt HANINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45139</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>45089</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44525</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -978,7 +978,7 @@
         <v>44825</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
         <v>44519</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>44525</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>43865</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>44139</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>44018</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>43438</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43438</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43906</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44966</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>45139</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>43364</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         <v>44125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44630</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>45014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>43627</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43913</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43951</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>44018</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44208</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>44526</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>44580</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>44796</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>44806</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44818</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43391</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43476</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43495</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43657</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>43727</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
         <v>43731</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>43807</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>43816</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43857</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4098,7 +4098,7 @@
         <v>43858</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>43858</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
         <v>43896</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         <v>43899</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>43906</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4383,7 +4383,7 @@
         <v>43913</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>44067</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>44166</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         <v>44168</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>44208</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>44208</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>44208</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4844,7 +4844,7 @@
         <v>44258</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4901,7 +4901,7 @@
         <v>44300</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4958,7 +4958,7 @@
         <v>44369</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5015,7 +5015,7 @@
         <v>44407</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>44417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>44425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>44440</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>44460</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>44476</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>44476</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>44526</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>44526</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>44526</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>44586</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>44643</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>44643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>44676</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>44676</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>44694</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>44761</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>44806</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>44825</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>44825</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>44825</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>44956</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>44966</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
         <v>45033</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         <v>45048</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>45070</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>45085</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>45089</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>45126</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>

--- a/Översikt HANINGE.xlsx
+++ b/Översikt HANINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45139</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>45089</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44525</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -978,7 +978,7 @@
         <v>44825</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
         <v>44519</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>44525</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>43865</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>44139</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>44018</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>43438</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43438</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43906</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44966</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>45139</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>43364</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         <v>44125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44630</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>45014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>43627</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43913</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43951</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>44018</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44208</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>44526</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>44580</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>44796</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>44806</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44818</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43391</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43476</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43495</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43657</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>43727</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
         <v>43731</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>43807</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>43816</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43857</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4098,7 +4098,7 @@
         <v>43858</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>43858</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
         <v>43896</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         <v>43899</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>43906</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4383,7 +4383,7 @@
         <v>43913</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>44067</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>44166</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         <v>44168</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>44208</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>44208</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>44208</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4844,7 +4844,7 @@
         <v>44258</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4901,7 +4901,7 @@
         <v>44300</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4958,7 +4958,7 @@
         <v>44369</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5015,7 +5015,7 @@
         <v>44407</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>44417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>44425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>44440</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>44460</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>44476</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>44476</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>44526</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>44526</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>44526</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>44586</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>44643</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>44643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>44676</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>44676</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>44694</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>44761</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>44806</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>44825</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>44825</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>44825</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>44956</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>44966</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
         <v>45033</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         <v>45048</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>45070</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>45085</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>45089</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>45126</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>

--- a/Översikt HANINGE.xlsx
+++ b/Översikt HANINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -639,31 +639,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 66380-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 66380-2021.xlsx", "A 66380-2021")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 66380-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 66380-2021.png", "A 66380-2021")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/knärot/A 66380-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/knärot/A 66380-2021.png", "A 66380-2021")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 66380-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 66380-2021.docx", "A 66380-2021")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 66380-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 66380-2021.docx", "A 66380-2021")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 66380-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 66380-2021.docx", "A 66380-2021")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 66380-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 66380-2021.docx", "A 66380-2021")</f>
         <v/>
       </c>
     </row>
@@ -677,7 +677,7 @@
         <v>45139</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,27 +744,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 34417-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 34417-2023.xlsx", "A 34417-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 34417-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 34417-2023.png", "A 34417-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 34417-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 34417-2023.docx", "A 34417-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 34417-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 34417-2023.docx", "A 34417-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 34417-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 34417-2023.docx", "A 34417-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 34417-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 34417-2023.docx", "A 34417-2023")</f>
         <v/>
       </c>
     </row>
@@ -778,7 +778,7 @@
         <v>45089</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,27 +847,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 25567-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 25567-2023.xlsx", "A 25567-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 25567-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 25567-2023.png", "A 25567-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 25567-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 25567-2023.docx", "A 25567-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 25567-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 25567-2023.docx", "A 25567-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 25567-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 25567-2023.docx", "A 25567-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 25567-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 25567-2023.docx", "A 25567-2023")</f>
         <v/>
       </c>
     </row>
@@ -881,7 +881,7 @@
         <v>44525</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,27 +944,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 67868-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 67868-2021.xlsx", "A 67868-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 67868-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 67868-2021.png", "A 67868-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 67868-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 67868-2021.docx", "A 67868-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 67868-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 67868-2021.docx", "A 67868-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 67868-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 67868-2021.docx", "A 67868-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 67868-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 67868-2021.docx", "A 67868-2021")</f>
         <v/>
       </c>
     </row>
@@ -978,7 +978,7 @@
         <v>44825</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,27 +1040,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 40859-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 40859-2022.xlsx", "A 40859-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 40859-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 40859-2022.png", "A 40859-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 40859-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 40859-2022.docx", "A 40859-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 40859-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 40859-2022.docx", "A 40859-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 40859-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 40859-2022.docx", "A 40859-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 40859-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 40859-2022.docx", "A 40859-2022")</f>
         <v/>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
         <v>44519</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1135,27 +1135,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 66797-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 66797-2021.xlsx", "A 66797-2021")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 66797-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 66797-2021.png", "A 66797-2021")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 66797-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 66797-2021.docx", "A 66797-2021")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 66797-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 66797-2021.docx", "A 66797-2021")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 66797-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 66797-2021.docx", "A 66797-2021")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 66797-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 66797-2021.docx", "A 66797-2021")</f>
         <v/>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
         <v>44525</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,27 +1229,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 67894-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 67894-2021.xlsx", "A 67894-2021")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 67894-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 67894-2021.png", "A 67894-2021")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 67894-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 67894-2021.docx", "A 67894-2021")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 67894-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 67894-2021.docx", "A 67894-2021")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 67894-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 67894-2021.docx", "A 67894-2021")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 67894-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 67894-2021.docx", "A 67894-2021")</f>
         <v/>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
         <v>43865</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,27 +1320,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 6703-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 6703-2020.xlsx", "A 6703-2020")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 6703-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 6703-2020.png", "A 6703-2020")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 6703-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 6703-2020.docx", "A 6703-2020")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 6703-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 6703-2020.docx", "A 6703-2020")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 6703-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 6703-2020.docx", "A 6703-2020")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 6703-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 6703-2020.docx", "A 6703-2020")</f>
         <v/>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
         <v>44139</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,27 +1410,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 57469-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 57469-2020.xlsx", "A 57469-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 57469-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 57469-2020.png", "A 57469-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 57469-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 57469-2020.docx", "A 57469-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 57469-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 57469-2020.docx", "A 57469-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 57469-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 57469-2020.docx", "A 57469-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 57469-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 57469-2020.docx", "A 57469-2020")</f>
         <v/>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1500,27 +1500,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 52616-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 52616-2021.xlsx", "A 52616-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 52616-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 52616-2021.png", "A 52616-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 52616-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 52616-2021.docx", "A 52616-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 52616-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 52616-2021.docx", "A 52616-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 52616-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 52616-2021.docx", "A 52616-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 52616-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 52616-2021.docx", "A 52616-2021")</f>
         <v/>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
         <v>44018</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,27 +1594,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 32532-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 32532-2020.xlsx", "A 32532-2020")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 32532-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 32532-2020.png", "A 32532-2020")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 32532-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 32532-2020.docx", "A 32532-2020")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 32532-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 32532-2020.docx", "A 32532-2020")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 32532-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 32532-2020.docx", "A 32532-2020")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 32532-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 32532-2020.docx", "A 32532-2020")</f>
         <v/>
       </c>
     </row>
@@ -1628,7 +1628,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1682,27 +1682,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 48515-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 48515-2018.xlsx", "A 48515-2018")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 48515-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 48515-2018.png", "A 48515-2018")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 48515-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 48515-2018.docx", "A 48515-2018")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 48515-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 48515-2018.docx", "A 48515-2018")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 48515-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 48515-2018.docx", "A 48515-2018")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 48515-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 48515-2018.docx", "A 48515-2018")</f>
         <v/>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
         <v>43438</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1770,27 +1770,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 67203-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 67203-2018.xlsx", "A 67203-2018")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 67203-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 67203-2018.png", "A 67203-2018")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 67203-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 67203-2018.docx", "A 67203-2018")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 67203-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 67203-2018.docx", "A 67203-2018")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 67203-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 67203-2018.docx", "A 67203-2018")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 67203-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 67203-2018.docx", "A 67203-2018")</f>
         <v/>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
         <v>43438</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1858,27 +1858,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 67201-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 67201-2018.xlsx", "A 67201-2018")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 67201-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 67201-2018.png", "A 67201-2018")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 67201-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 67201-2018.docx", "A 67201-2018")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 67201-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 67201-2018.docx", "A 67201-2018")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 67201-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 67201-2018.docx", "A 67201-2018")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 67201-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 67201-2018.docx", "A 67201-2018")</f>
         <v/>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
         <v>43906</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1945,27 +1945,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 13892-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 13892-2020.xlsx", "A 13892-2020")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 13892-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 13892-2020.png", "A 13892-2020")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 13892-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 13892-2020.docx", "A 13892-2020")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 13892-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 13892-2020.docx", "A 13892-2020")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 13892-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 13892-2020.docx", "A 13892-2020")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 13892-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 13892-2020.docx", "A 13892-2020")</f>
         <v/>
       </c>
     </row>
@@ -1979,7 +1979,7 @@
         <v>44966</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2032,27 +2032,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 6646-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 6646-2023.xlsx", "A 6646-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 6646-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 6646-2023.png", "A 6646-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 6646-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 6646-2023.docx", "A 6646-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 6646-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 6646-2023.docx", "A 6646-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 6646-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 6646-2023.docx", "A 6646-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 6646-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 6646-2023.docx", "A 6646-2023")</f>
         <v/>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
         <v>45139</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2119,27 +2119,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 34343-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 34343-2023.xlsx", "A 34343-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 34343-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 34343-2023.png", "A 34343-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 34343-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 34343-2023.docx", "A 34343-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 34343-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 34343-2023.docx", "A 34343-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 34343-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 34343-2023.docx", "A 34343-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 34343-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 34343-2023.docx", "A 34343-2023")</f>
         <v/>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
         <v>43364</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2205,27 +2205,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 45734-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 45734-2018.xlsx", "A 45734-2018")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 45734-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 45734-2018.png", "A 45734-2018")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 45734-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 45734-2018.docx", "A 45734-2018")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 45734-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 45734-2018.docx", "A 45734-2018")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 45734-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 45734-2018.docx", "A 45734-2018")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 45734-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 45734-2018.docx", "A 45734-2018")</f>
         <v/>
       </c>
     </row>
@@ -2239,7 +2239,7 @@
         <v>44125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2291,27 +2291,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 53858-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 53858-2020.xlsx", "A 53858-2020")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 53858-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 53858-2020.png", "A 53858-2020")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 53858-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 53858-2020.docx", "A 53858-2020")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 53858-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 53858-2020.docx", "A 53858-2020")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 53858-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 53858-2020.docx", "A 53858-2020")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 53858-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 53858-2020.docx", "A 53858-2020")</f>
         <v/>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
         <v>44630</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2377,27 +2377,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 11513-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 11513-2022.xlsx", "A 11513-2022")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 11513-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 11513-2022.png", "A 11513-2022")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 11513-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 11513-2022.docx", "A 11513-2022")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 11513-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 11513-2022.docx", "A 11513-2022")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 11513-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 11513-2022.docx", "A 11513-2022")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 11513-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 11513-2022.docx", "A 11513-2022")</f>
         <v/>
       </c>
     </row>
@@ -2411,7 +2411,7 @@
         <v>45014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2463,27 +2463,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 14729-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 14729-2023.xlsx", "A 14729-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 14729-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 14729-2023.png", "A 14729-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 14729-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 14729-2023.docx", "A 14729-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 14729-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 14729-2023.docx", "A 14729-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 14729-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 14729-2023.docx", "A 14729-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 14729-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 14729-2023.docx", "A 14729-2023")</f>
         <v/>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
         <v>43627</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2548,27 +2548,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 29513-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 29513-2019.xlsx", "A 29513-2019")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 29513-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 29513-2019.png", "A 29513-2019")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 29513-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 29513-2019.docx", "A 29513-2019")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 29513-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 29513-2019.docx", "A 29513-2019")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 29513-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 29513-2019.docx", "A 29513-2019")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 29513-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 29513-2019.docx", "A 29513-2019")</f>
         <v/>
       </c>
     </row>
@@ -2582,7 +2582,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2638,27 +2638,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 68231-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 68231-2019.xlsx", "A 68231-2019")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 68231-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 68231-2019.png", "A 68231-2019")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 68231-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 68231-2019.docx", "A 68231-2019")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 68231-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 68231-2019.docx", "A 68231-2019")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 68231-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 68231-2019.docx", "A 68231-2019")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 68231-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 68231-2019.docx", "A 68231-2019")</f>
         <v/>
       </c>
     </row>
@@ -2672,7 +2672,7 @@
         <v>43913</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2728,27 +2728,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 15312-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 15312-2020.xlsx", "A 15312-2020")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 15312-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 15312-2020.png", "A 15312-2020")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 15312-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 15312-2020.docx", "A 15312-2020")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 15312-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 15312-2020.docx", "A 15312-2020")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 15312-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 15312-2020.docx", "A 15312-2020")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 15312-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 15312-2020.docx", "A 15312-2020")</f>
         <v/>
       </c>
     </row>
@@ -2762,7 +2762,7 @@
         <v>43951</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2813,27 +2813,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 21187-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 21187-2020.xlsx", "A 21187-2020")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 21187-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 21187-2020.png", "A 21187-2020")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 21187-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 21187-2020.docx", "A 21187-2020")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 21187-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 21187-2020.docx", "A 21187-2020")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 21187-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 21187-2020.docx", "A 21187-2020")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 21187-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 21187-2020.docx", "A 21187-2020")</f>
         <v/>
       </c>
     </row>
@@ -2847,7 +2847,7 @@
         <v>44018</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2903,27 +2903,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 32525-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 32525-2020.xlsx", "A 32525-2020")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 32525-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 32525-2020.png", "A 32525-2020")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 32525-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 32525-2020.docx", "A 32525-2020")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 32525-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 32525-2020.docx", "A 32525-2020")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 32525-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 32525-2020.docx", "A 32525-2020")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 32525-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 32525-2020.docx", "A 32525-2020")</f>
         <v/>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
         <v>44208</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2988,31 +2988,31 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 1424-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 1424-2021.xlsx", "A 1424-2021")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 1424-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 1424-2021.png", "A 1424-2021")</f>
         <v/>
       </c>
       <c r="U28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/knärot/A 1424-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/knärot/A 1424-2021.png", "A 1424-2021")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 1424-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 1424-2021.docx", "A 1424-2021")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 1424-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 1424-2021.docx", "A 1424-2021")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 1424-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 1424-2021.docx", "A 1424-2021")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 1424-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 1424-2021.docx", "A 1424-2021")</f>
         <v/>
       </c>
     </row>
@@ -3026,7 +3026,7 @@
         <v>44526</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3077,27 +3077,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 68883-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 68883-2021.xlsx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 68883-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 68883-2021.png", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 68883-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 68883-2021.docx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 68883-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 68883-2021.docx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 68883-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 68883-2021.docx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 68883-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 68883-2021.docx", "A 68883-2021")</f>
         <v/>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
         <v>44580</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3162,27 +3162,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 2722-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 2722-2022.xlsx", "A 2722-2022")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 2722-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 2722-2022.png", "A 2722-2022")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 2722-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 2722-2022.docx", "A 2722-2022")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 2722-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 2722-2022.docx", "A 2722-2022")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 2722-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 2722-2022.docx", "A 2722-2022")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 2722-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 2722-2022.docx", "A 2722-2022")</f>
         <v/>
       </c>
     </row>
@@ -3196,7 +3196,7 @@
         <v>44796</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3247,27 +3247,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 34823-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 34823-2022.xlsx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 34823-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 34823-2022.png", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 34823-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 34823-2022.docx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 34823-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 34823-2022.docx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 34823-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 34823-2022.docx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 34823-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 34823-2022.docx", "A 34823-2022")</f>
         <v/>
       </c>
     </row>
@@ -3281,7 +3281,7 @@
         <v>44806</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3337,27 +3337,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 37004-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 37004-2022.xlsx", "A 37004-2022")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 37004-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 37004-2022.png", "A 37004-2022")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 37004-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 37004-2022.docx", "A 37004-2022")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 37004-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 37004-2022.docx", "A 37004-2022")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 37004-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 37004-2022.docx", "A 37004-2022")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 37004-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 37004-2022.docx", "A 37004-2022")</f>
         <v/>
       </c>
     </row>
@@ -3371,7 +3371,7 @@
         <v>44818</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3422,27 +3422,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 39636-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 39636-2022.xlsx", "A 39636-2022")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 39636-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 39636-2022.png", "A 39636-2022")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 39636-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 39636-2022.docx", "A 39636-2022")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 39636-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 39636-2022.docx", "A 39636-2022")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 39636-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 39636-2022.docx", "A 39636-2022")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 39636-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 39636-2022.docx", "A 39636-2022")</f>
         <v/>
       </c>
     </row>
@@ -3456,7 +3456,7 @@
         <v>43391</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43476</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43495</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43657</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>43727</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
         <v>43731</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>43807</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>43816</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43857</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4098,7 +4098,7 @@
         <v>43858</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>43858</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
         <v>43896</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         <v>43899</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>43906</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4383,7 +4383,7 @@
         <v>43913</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>44067</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>44166</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         <v>44168</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>44208</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>44208</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>44208</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4844,7 +4844,7 @@
         <v>44258</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4901,7 +4901,7 @@
         <v>44300</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4958,7 +4958,7 @@
         <v>44369</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5015,7 +5015,7 @@
         <v>44407</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>44417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>44425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>44440</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>44460</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>44476</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>44476</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>44526</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>44526</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>44526</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>44586</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>44643</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>44643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>44676</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>44676</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>44694</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>44761</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>44806</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>44825</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>44825</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>44825</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>44956</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>44966</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
         <v>45033</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         <v>45048</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>45070</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>45085</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>45089</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>45126</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>

--- a/Översikt HANINGE.xlsx
+++ b/Översikt HANINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45139</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>45089</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44525</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,14 +971,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 40859-2022</t>
+          <t>A 67894-2021</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44825</v>
+        <v>44525</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -991,16 +991,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>7.8</v>
+        <v>5.1</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -1024,6 +1024,102 @@
         <v>12</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Grönhjon
+Kortskaftad ärgspik
+Reliktbock
+Spillkråka
+Tallticka
+Talltita
+Ullticka
+Blåmossa
+Bronshjon
+Grovticka
+Grön sköldmossa
+Stor revmossa</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 67894-2021.xlsx", "A 67894-2021")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 67894-2021.png", "A 67894-2021")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 67894-2021.docx", "A 67894-2021")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 67894-2021.docx", "A 67894-2021")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 67894-2021.docx", "A 67894-2021")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 67894-2021.docx", "A 67894-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 40859-2022</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>44825</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>12</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Granticka
 Spillkråka
@@ -1039,87 +1135,87 @@
 Thomsons trägnagare</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 40859-2022.xlsx", "A 40859-2022")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 40859-2022.png", "A 40859-2022")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 40859-2022.docx", "A 40859-2022")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 40859-2022.docx", "A 40859-2022")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 40859-2022.docx", "A 40859-2022")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 40859-2022.docx", "A 40859-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 66797-2021</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>44519</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>45186</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+      <c r="C8" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>3</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>2</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J8" t="n">
         <v>6</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K8" t="n">
         <v>3</v>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>9</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P8" t="n">
         <v>3</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q8" t="n">
         <v>11</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Gulbrunt nejlikfly
 Korkmusslingsmal
@@ -1134,122 +1230,28 @@
 Större aspvedbock</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 66797-2021.xlsx", "A 66797-2021")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 66797-2021.png", "A 66797-2021")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 66797-2021.docx", "A 66797-2021")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 66797-2021.docx", "A 66797-2021")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 66797-2021.docx", "A 66797-2021")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 66797-2021.docx", "A 66797-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 67894-2021</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>44525</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>45186</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>6</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>6</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>10</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Grönhjon
-Kortskaftad ärgspik
-Reliktbock
-Spillkråka
-Tallticka
-Ullticka
-Bronshjon
-Grovticka
-Grön sköldmossa
-Stor revmossa</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 67894-2021.xlsx", "A 67894-2021")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 67894-2021.png", "A 67894-2021")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 67894-2021.docx", "A 67894-2021")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 67894-2021.docx", "A 67894-2021")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 67894-2021.docx", "A 67894-2021")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 67894-2021.docx", "A 67894-2021")</f>
         <v/>
       </c>
     </row>
@@ -1263,7 +1265,7 @@
         <v>43865</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1356,7 @@
         <v>44139</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1444,7 +1446,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1534,7 +1536,7 @@
         <v>44018</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1628,7 +1630,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1716,7 +1718,7 @@
         <v>43438</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1804,7 +1806,7 @@
         <v>43438</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1892,7 +1894,7 @@
         <v>43906</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1979,7 +1981,7 @@
         <v>44966</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2066,7 +2068,7 @@
         <v>45139</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2153,7 +2155,7 @@
         <v>43364</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2239,7 +2241,7 @@
         <v>44125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2325,7 +2327,7 @@
         <v>44630</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2411,7 +2413,7 @@
         <v>45014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2497,7 +2499,7 @@
         <v>43627</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2582,7 +2584,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2672,7 +2674,7 @@
         <v>43913</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2762,7 +2764,7 @@
         <v>43951</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2847,7 +2849,7 @@
         <v>44018</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2937,7 +2939,7 @@
         <v>44208</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3026,7 +3028,7 @@
         <v>44526</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3111,7 +3113,7 @@
         <v>44580</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3196,7 +3198,7 @@
         <v>44796</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3281,7 +3283,7 @@
         <v>44806</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3371,7 +3373,7 @@
         <v>44818</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3456,7 +3458,7 @@
         <v>43391</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3513,7 +3515,7 @@
         <v>43476</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3575,7 +3577,7 @@
         <v>43495</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3632,7 +3634,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3694,7 +3696,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3751,7 +3753,7 @@
         <v>43657</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3813,7 +3815,7 @@
         <v>43727</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3870,7 +3872,7 @@
         <v>43731</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3927,7 +3929,7 @@
         <v>43807</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3984,7 +3986,7 @@
         <v>43816</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4041,7 +4043,7 @@
         <v>43857</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4098,7 +4100,7 @@
         <v>43858</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4155,7 +4157,7 @@
         <v>43858</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4212,7 +4214,7 @@
         <v>43896</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4269,7 +4271,7 @@
         <v>43899</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4326,7 +4328,7 @@
         <v>43906</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4383,7 +4385,7 @@
         <v>43913</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4440,7 +4442,7 @@
         <v>44067</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4497,7 +4499,7 @@
         <v>44166</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4554,7 +4556,7 @@
         <v>44168</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4611,7 +4613,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4673,7 +4675,7 @@
         <v>44208</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4730,7 +4732,7 @@
         <v>44208</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4787,7 +4789,7 @@
         <v>44208</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4844,7 +4846,7 @@
         <v>44258</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4901,7 +4903,7 @@
         <v>44300</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4958,7 +4960,7 @@
         <v>44369</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5015,7 +5017,7 @@
         <v>44407</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5072,7 +5074,7 @@
         <v>44417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5129,7 +5131,7 @@
         <v>44425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5186,7 +5188,7 @@
         <v>44440</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5248,7 +5250,7 @@
         <v>44460</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5305,7 +5307,7 @@
         <v>44476</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5367,7 +5369,7 @@
         <v>44476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5429,7 +5431,7 @@
         <v>44476</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5491,7 +5493,7 @@
         <v>44526</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5548,7 +5550,7 @@
         <v>44526</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5605,7 +5607,7 @@
         <v>44526</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5662,7 +5664,7 @@
         <v>44586</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5719,7 +5721,7 @@
         <v>44643</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5776,7 +5778,7 @@
         <v>44643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5833,7 +5835,7 @@
         <v>44676</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5895,7 +5897,7 @@
         <v>44676</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5957,7 +5959,7 @@
         <v>44694</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6014,7 +6016,7 @@
         <v>44761</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6071,7 +6073,7 @@
         <v>44806</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6133,7 +6135,7 @@
         <v>44825</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6195,7 +6197,7 @@
         <v>44825</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6257,7 +6259,7 @@
         <v>44825</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6319,7 +6321,7 @@
         <v>44956</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6376,7 +6378,7 @@
         <v>44966</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6433,7 +6435,7 @@
         <v>45033</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6490,7 +6492,7 @@
         <v>45048</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6547,7 +6549,7 @@
         <v>45070</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6604,7 +6606,7 @@
         <v>45085</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6661,7 +6663,7 @@
         <v>45089</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6718,7 +6720,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6775,7 +6777,7 @@
         <v>45126</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>

--- a/Översikt HANINGE.xlsx
+++ b/Översikt HANINGE.xlsx
@@ -565,14 +565,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 66380-2021</t>
+          <t>A 67868-2021</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>44518</v>
+        <v>44525</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -585,39 +585,243 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>10.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
       </c>
       <c r="I2" t="n">
+        <v>12</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>18</v>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Gränsticka
+Spillkråka
+Tallticka
+Vedskivlav
+Björksplintborre
+Blåmossa
+Bronshjon
+Flagellkvastmossa
+Granbarkgnagare
+Grön sköldmossa
+Kornknutmossa
+Mindre märgborre
+Platt fjädermossa
+Scharlakansvårskål agg.
+Stubbspretmossa
+Sårläka
+Blåsippa
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 67868-2021.xlsx", "A 67868-2021")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 67868-2021.png", "A 67868-2021")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 67868-2021.docx", "A 67868-2021")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 67868-2021.docx", "A 67868-2021")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 67868-2021.docx", "A 67868-2021")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 67868-2021.docx", "A 67868-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 67894-2021</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>44525</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
         <v>9</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J3" t="n">
+        <v>9</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>9</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>18</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Grönhjon
+Kortskaftad ärgspik
+Motaggsvamp
+Reliktbock
+Spillkråka
+Svartvit taggsvamp
+Tallticka
+Talltita
+Ullticka
+Björksplintborre
+Blåmossa
+Bronshjon
+Granbarkgnagare
+Grovticka
+Grön sköldmossa
+Kornknutmossa
+Stor revmossa
+Stubbspretmossa</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 67894-2021.xlsx", "A 67894-2021")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 67894-2021.png", "A 67894-2021")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 67894-2021.docx", "A 67894-2021")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 67894-2021.docx", "A 67894-2021")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 67894-2021.docx", "A 67894-2021")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 67894-2021.docx", "A 67894-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 66380-2021</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>44518</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9</v>
+      </c>
+      <c r="J4" t="n">
         <v>5</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K4" t="n">
         <v>1</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L4" t="n">
         <v>1</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>7</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P4" t="n">
         <v>2</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q4" t="n">
         <v>17</v>
       </c>
-      <c r="R2" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Ryl
 Knärot
@@ -638,91 +842,91 @@
 Lopplummer</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 66380-2021.xlsx", "A 66380-2021")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 66380-2021.png", "A 66380-2021")</f>
         <v/>
       </c>
-      <c r="U2">
+      <c r="U4">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/knärot/A 66380-2021.png", "A 66380-2021")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 66380-2021.docx", "A 66380-2021")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 66380-2021.docx", "A 66380-2021")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 66380-2021.docx", "A 66380-2021")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 66380-2021.docx", "A 66380-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>A 34417-2023</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B5" s="1" t="n">
         <v>45139</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+      <c r="C5" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>3.8</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H5" t="n">
         <v>4</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I5" t="n">
         <v>11</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J5" t="n">
         <v>4</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>4</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>17</v>
       </c>
-      <c r="R3" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Barrviolspindling
 Leptoporus erubescens
@@ -743,92 +947,92 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 34417-2023.xlsx", "A 34417-2023")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 34417-2023.png", "A 34417-2023")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 34417-2023.docx", "A 34417-2023")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 34417-2023.docx", "A 34417-2023")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 34417-2023.docx", "A 34417-2023")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 34417-2023.docx", "A 34417-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>A 25567-2023</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B6" s="1" t="n">
         <v>45089</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="C6" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Övriga Aktiebolag</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="G6" t="n">
         <v>10.9</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H6" t="n">
         <v>4</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I6" t="n">
         <v>10</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J6" t="n">
         <v>2</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>2</v>
       </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>14</v>
       </c>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Granticka
 Vedtrappmossa
@@ -846,221 +1050,28 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 25567-2023.xlsx", "A 25567-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 25567-2023.png", "A 25567-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 25567-2023.docx", "A 25567-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 25567-2023.docx", "A 25567-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 25567-2023.docx", "A 25567-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 25567-2023.docx", "A 25567-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 67868-2021</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44525</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>13</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Gränsticka
-Spillkråka
-Tallticka
-Vedskivlav
-Blåmossa
-Bronshjon
-Flagellkvastmossa
-Grön sköldmossa
-Mindre märgborre
-Scharlakansvårskål agg.
-Sårläka
-Blåsippa
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 67868-2021.xlsx", "A 67868-2021")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 67868-2021.png", "A 67868-2021")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 67868-2021.docx", "A 67868-2021")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 67868-2021.docx", "A 67868-2021")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 67868-2021.docx", "A 67868-2021")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 67868-2021.docx", "A 67868-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 67894-2021</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44525</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>7</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>7</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>12</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Grönhjon
-Kortskaftad ärgspik
-Reliktbock
-Spillkråka
-Tallticka
-Talltita
-Ullticka
-Blåmossa
-Bronshjon
-Grovticka
-Grön sköldmossa
-Stor revmossa</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/artfynd/A 67894-2021.xlsx", "A 67894-2021")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/kartor/A 67894-2021.png", "A 67894-2021")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomål/A 67894-2021.docx", "A 67894-2021")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/klagomålsmail/A 67894-2021.docx", "A 67894-2021")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsyn/A 67894-2021.docx", "A 67894-2021")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HANINGE/tillsynsmail/A 67894-2021.docx", "A 67894-2021")</f>
         <v/>
       </c>
     </row>
@@ -1074,7 +1085,7 @@
         <v>44825</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1170,7 +1181,7 @@
         <v>44519</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1265,7 +1276,7 @@
         <v>43865</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1367,7 @@
         <v>44139</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1446,7 +1457,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1536,7 +1547,7 @@
         <v>44018</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1630,7 +1641,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1718,7 +1729,7 @@
         <v>43438</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1806,7 +1817,7 @@
         <v>43438</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1894,7 +1905,7 @@
         <v>43906</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1981,7 +1992,7 @@
         <v>44966</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2068,7 +2079,7 @@
         <v>45139</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2155,7 +2166,7 @@
         <v>43364</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2241,7 +2252,7 @@
         <v>44125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2327,7 +2338,7 @@
         <v>44630</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2413,7 +2424,7 @@
         <v>45014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2499,7 +2510,7 @@
         <v>43627</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2584,7 +2595,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2674,7 +2685,7 @@
         <v>43913</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2764,7 +2775,7 @@
         <v>43951</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2849,7 +2860,7 @@
         <v>44018</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2939,7 +2950,7 @@
         <v>44208</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3028,7 +3039,7 @@
         <v>44526</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3113,7 +3124,7 @@
         <v>44580</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3198,7 +3209,7 @@
         <v>44796</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3283,7 +3294,7 @@
         <v>44806</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3373,7 +3384,7 @@
         <v>44818</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3458,7 +3469,7 @@
         <v>43391</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3515,7 +3526,7 @@
         <v>43476</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3577,7 +3588,7 @@
         <v>43495</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3634,7 +3645,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3696,7 +3707,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3753,7 +3764,7 @@
         <v>43657</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3815,7 +3826,7 @@
         <v>43727</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3872,7 +3883,7 @@
         <v>43731</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3929,7 +3940,7 @@
         <v>43807</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3986,7 +3997,7 @@
         <v>43816</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4043,7 +4054,7 @@
         <v>43857</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4100,7 +4111,7 @@
         <v>43858</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4157,7 +4168,7 @@
         <v>43858</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4214,7 +4225,7 @@
         <v>43896</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4271,7 +4282,7 @@
         <v>43899</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4328,7 +4339,7 @@
         <v>43906</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4385,7 +4396,7 @@
         <v>43913</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4442,7 +4453,7 @@
         <v>44067</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4499,7 +4510,7 @@
         <v>44166</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4556,7 +4567,7 @@
         <v>44168</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4613,7 +4624,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4675,7 +4686,7 @@
         <v>44208</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4732,7 +4743,7 @@
         <v>44208</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4789,7 +4800,7 @@
         <v>44208</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4846,7 +4857,7 @@
         <v>44258</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4903,7 +4914,7 @@
         <v>44300</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4960,7 +4971,7 @@
         <v>44369</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5017,7 +5028,7 @@
         <v>44407</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5074,7 +5085,7 @@
         <v>44417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5131,7 +5142,7 @@
         <v>44425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5188,7 +5199,7 @@
         <v>44440</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5250,7 +5261,7 @@
         <v>44460</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5307,7 +5318,7 @@
         <v>44476</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5369,7 +5380,7 @@
         <v>44476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5431,7 +5442,7 @@
         <v>44476</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5493,7 +5504,7 @@
         <v>44526</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5550,7 +5561,7 @@
         <v>44526</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5607,7 +5618,7 @@
         <v>44526</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5664,7 +5675,7 @@
         <v>44586</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5721,7 +5732,7 @@
         <v>44643</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5778,7 +5789,7 @@
         <v>44643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5835,7 +5846,7 @@
         <v>44676</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5897,7 +5908,7 @@
         <v>44676</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5959,7 +5970,7 @@
         <v>44694</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6016,7 +6027,7 @@
         <v>44761</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6073,7 +6084,7 @@
         <v>44806</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6135,7 +6146,7 @@
         <v>44825</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6197,7 +6208,7 @@
         <v>44825</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6259,7 +6270,7 @@
         <v>44825</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6321,7 +6332,7 @@
         <v>44956</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6378,7 +6389,7 @@
         <v>44966</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6435,7 +6446,7 @@
         <v>45033</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6492,7 +6503,7 @@
         <v>45048</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6549,7 +6560,7 @@
         <v>45070</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6606,7 +6617,7 @@
         <v>45085</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6663,7 +6674,7 @@
         <v>45089</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6720,7 +6731,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6777,7 +6788,7 @@
         <v>45126</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>

--- a/Översikt HANINGE.xlsx
+++ b/Översikt HANINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44525</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44525</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>44518</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>45139</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>45089</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>44825</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44519</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>43865</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44139</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44018</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>43438</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>43438</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>43906</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>44966</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         <v>45139</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>43364</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>44125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>44630</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>45014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>43627</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>43913</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43951</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>44018</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>44208</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>44526</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>44580</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>44796</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>44806</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>44818</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43391</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43476</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>43495</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43657</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>43727</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43731</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>43807</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43816</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>43857</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>43858</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>43858</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>43896</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>43899</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>43906</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>43913</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44067</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44166</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>44168</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>44208</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>44208</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44208</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>44258</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>44300</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>44369</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>44407</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>44417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>44425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>44440</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>44460</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>44476</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5442,7 +5442,7 @@
         <v>44476</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>44526</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>44526</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>44526</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>44586</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>44643</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>44643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>44676</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>44676</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         <v>44694</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6027,7 +6027,7 @@
         <v>44761</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6084,7 +6084,7 @@
         <v>44806</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         <v>44825</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44825</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>44825</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44956</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44966</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>45033</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>45048</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>45070</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>45085</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>45089</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>45126</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>

--- a/Översikt HANINGE.xlsx
+++ b/Översikt HANINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44525</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44525</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>44518</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>45139</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
         <v>11</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -918,18 +918,17 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Barrviolspindling
-Leptoporus erubescens
 Spillkråka
 Vedtrappmossa
 Bronshjon
@@ -982,7 +981,7 @@
         <v>45089</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1085,7 +1084,7 @@
         <v>44825</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1181,7 +1180,7 @@
         <v>44519</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1276,7 +1275,7 @@
         <v>43865</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1367,7 +1366,7 @@
         <v>44139</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1457,7 +1456,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1547,7 +1546,7 @@
         <v>44018</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1641,7 +1640,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1729,7 +1728,7 @@
         <v>43438</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1817,7 +1816,7 @@
         <v>43438</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1905,7 +1904,7 @@
         <v>43906</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1992,7 +1991,7 @@
         <v>44966</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2079,7 +2078,7 @@
         <v>45139</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2166,7 +2165,7 @@
         <v>43364</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2252,7 +2251,7 @@
         <v>44125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2338,7 +2337,7 @@
         <v>44630</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2424,7 +2423,7 @@
         <v>45014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2510,7 +2509,7 @@
         <v>43627</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2595,7 +2594,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2685,7 +2684,7 @@
         <v>43913</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2775,7 +2774,7 @@
         <v>43951</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2860,7 +2859,7 @@
         <v>44018</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2950,7 +2949,7 @@
         <v>44208</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3039,7 +3038,7 @@
         <v>44526</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3124,7 +3123,7 @@
         <v>44580</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3209,7 +3208,7 @@
         <v>44796</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3294,7 +3293,7 @@
         <v>44806</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3384,7 +3383,7 @@
         <v>44818</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3469,7 +3468,7 @@
         <v>43391</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3526,7 +3525,7 @@
         <v>43476</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3588,7 +3587,7 @@
         <v>43495</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3645,7 +3644,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3707,7 +3706,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3764,7 +3763,7 @@
         <v>43657</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3826,7 +3825,7 @@
         <v>43727</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3883,7 +3882,7 @@
         <v>43731</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3940,7 +3939,7 @@
         <v>43807</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3997,7 +3996,7 @@
         <v>43816</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4054,7 +4053,7 @@
         <v>43857</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4111,7 +4110,7 @@
         <v>43858</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4168,7 +4167,7 @@
         <v>43858</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4225,7 +4224,7 @@
         <v>43896</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4282,7 +4281,7 @@
         <v>43899</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4339,7 +4338,7 @@
         <v>43906</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4396,7 +4395,7 @@
         <v>43913</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4453,7 +4452,7 @@
         <v>44067</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4510,7 +4509,7 @@
         <v>44166</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4567,7 +4566,7 @@
         <v>44168</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4624,7 +4623,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4686,7 +4685,7 @@
         <v>44208</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4743,7 +4742,7 @@
         <v>44208</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4800,7 +4799,7 @@
         <v>44208</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4857,7 +4856,7 @@
         <v>44258</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4914,7 +4913,7 @@
         <v>44300</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4971,7 +4970,7 @@
         <v>44369</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5028,7 +5027,7 @@
         <v>44407</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5085,7 +5084,7 @@
         <v>44417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5142,7 +5141,7 @@
         <v>44425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5199,7 +5198,7 @@
         <v>44440</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5261,7 +5260,7 @@
         <v>44460</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5318,7 +5317,7 @@
         <v>44476</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5380,7 +5379,7 @@
         <v>44476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5442,7 +5441,7 @@
         <v>44476</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5504,7 +5503,7 @@
         <v>44526</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5561,7 +5560,7 @@
         <v>44526</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5618,7 +5617,7 @@
         <v>44526</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5675,7 +5674,7 @@
         <v>44586</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5732,7 +5731,7 @@
         <v>44643</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5789,7 +5788,7 @@
         <v>44643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5846,7 +5845,7 @@
         <v>44676</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5908,7 +5907,7 @@
         <v>44676</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5970,7 +5969,7 @@
         <v>44694</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6027,7 +6026,7 @@
         <v>44761</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6084,7 +6083,7 @@
         <v>44806</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6146,7 +6145,7 @@
         <v>44825</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6208,7 +6207,7 @@
         <v>44825</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6270,7 +6269,7 @@
         <v>44825</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6332,7 +6331,7 @@
         <v>44956</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6389,7 +6388,7 @@
         <v>44966</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6446,7 +6445,7 @@
         <v>45033</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6503,7 +6502,7 @@
         <v>45048</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6560,7 +6559,7 @@
         <v>45070</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6617,7 +6616,7 @@
         <v>45085</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6674,7 +6673,7 @@
         <v>45089</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6731,7 +6730,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6788,7 +6787,7 @@
         <v>45126</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>

--- a/Översikt HANINGE.xlsx
+++ b/Översikt HANINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44525</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44525</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>44518</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>45139</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45089</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44825</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>44519</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43865</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44139</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>44018</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>43438</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1816,7 +1816,7 @@
         <v>43438</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43906</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>44966</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>45139</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43364</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         <v>44125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>44630</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>45014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>43627</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43913</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>43951</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44018</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44208</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>44526</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>44580</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44796</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44806</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44818</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43391</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43476</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43495</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43657</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>43727</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>43731</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>43807</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>43816</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>43857</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4110,7 +4110,7 @@
         <v>43858</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>43858</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>43896</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>43899</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>43906</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43913</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44067</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44166</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44168</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44208</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44208</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44208</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44258</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>44300</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>44369</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>44407</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>44425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>44440</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>44460</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>44476</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>44476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         <v>44476</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>44526</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>44526</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>44526</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>44586</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>44643</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>44643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44676</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         <v>44676</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44694</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44761</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44806</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>44825</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>44825</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>44825</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>44956</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>44966</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>45033</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>45048</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>45070</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>45085</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>45089</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>45126</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>

--- a/Översikt HANINGE.xlsx
+++ b/Översikt HANINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44525</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44525</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>44518</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>45139</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45089</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44825</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>44519</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43865</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44139</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>44018</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>43438</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1816,7 +1816,7 @@
         <v>43438</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43906</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>44966</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>45139</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43364</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         <v>44125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>44630</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>45014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>43627</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43913</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>43951</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44018</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44208</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>44526</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>44580</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44796</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44806</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44818</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43391</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43476</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43495</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43657</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>43727</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>43731</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>43807</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>43816</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>43857</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4110,7 +4110,7 @@
         <v>43858</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>43858</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>43896</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>43899</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>43906</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43913</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44067</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44166</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44168</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44208</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44208</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44208</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44258</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>44300</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>44369</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>44407</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>44425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>44440</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>44460</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>44476</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>44476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         <v>44476</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>44526</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>44526</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>44526</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>44586</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>44643</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>44643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44676</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         <v>44676</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44694</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44761</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44806</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>44825</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>44825</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>44825</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>44956</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>44966</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>45033</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>45048</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>45070</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>45085</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>45089</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>45126</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>

--- a/Översikt HANINGE.xlsx
+++ b/Översikt HANINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44525</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44525</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>44518</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>45139</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45089</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44825</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>44519</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43865</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44139</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>44018</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>43438</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1816,7 +1816,7 @@
         <v>43438</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43906</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>44966</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>45139</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43364</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         <v>44125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>44630</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>45014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>43627</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43913</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>43951</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44018</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44208</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>44526</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>44580</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44796</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44806</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44818</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43391</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43476</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43495</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43657</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>43727</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>43731</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>43807</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>43816</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>43857</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4110,7 +4110,7 @@
         <v>43858</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>43858</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>43896</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>43899</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>43906</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43913</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44067</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44166</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44168</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44208</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44208</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44208</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44258</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>44300</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>44369</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>44407</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>44425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>44440</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>44460</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>44476</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>44476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         <v>44476</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>44526</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>44526</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>44526</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>44586</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>44643</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>44643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44676</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         <v>44676</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44694</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44761</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44806</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>44825</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>44825</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>44825</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>44956</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>44966</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>45033</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>45048</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>45070</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>45085</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>45089</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>45126</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>

--- a/Översikt HANINGE.xlsx
+++ b/Översikt HANINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44525</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44525</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>44518</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>45139</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45089</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44825</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>44519</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43865</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44139</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>44018</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>43438</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1816,7 +1816,7 @@
         <v>43438</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43906</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>44966</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>45139</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43364</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         <v>44125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>44630</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>45014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>43627</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43913</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>43951</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44018</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44208</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>44526</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>44580</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44796</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44806</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44818</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43391</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43476</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43495</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43657</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>43727</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>43731</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>43807</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>43816</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>43857</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4110,7 +4110,7 @@
         <v>43858</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>43858</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>43896</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>43899</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>43906</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43913</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44067</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44166</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44168</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44208</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44208</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44208</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44258</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>44300</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>44369</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>44407</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>44425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>44440</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>44460</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>44476</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>44476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         <v>44476</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>44526</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>44526</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>44526</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>44586</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>44643</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>44643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44676</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         <v>44676</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44694</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44761</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44806</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>44825</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>44825</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>44825</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>44956</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>44966</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>45033</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>45048</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>45070</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>45085</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>45089</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>45126</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>

--- a/Översikt HANINGE.xlsx
+++ b/Översikt HANINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44525</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44525</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>44518</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>45139</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45089</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44825</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>44519</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43865</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44139</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>44018</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>43438</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1816,7 +1816,7 @@
         <v>43438</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43906</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>44966</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>45139</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43364</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         <v>44125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>44630</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>45014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>43627</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43913</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>43951</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44018</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44208</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>44526</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>44580</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44796</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44806</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44818</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43391</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43476</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43495</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43657</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>43727</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>43731</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>43807</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>43816</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>43857</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4110,7 +4110,7 @@
         <v>43858</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>43858</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>43896</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>43899</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>43906</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43913</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44067</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44166</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44168</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44208</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44208</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44208</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44258</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>44300</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>44369</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>44407</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>44425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>44440</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>44460</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>44476</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>44476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         <v>44476</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>44526</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>44526</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>44526</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>44586</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>44643</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>44643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44676</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         <v>44676</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44694</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44761</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44806</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>44825</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>44825</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>44825</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>44956</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>44966</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>45033</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>45048</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>45070</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>45085</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>45089</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>45126</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>

--- a/Översikt HANINGE.xlsx
+++ b/Översikt HANINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44525</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44525</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>44518</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>45139</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45089</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44825</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>44519</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43865</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44139</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>44018</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>43438</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1816,7 +1816,7 @@
         <v>43438</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43906</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>44966</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>45139</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43364</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         <v>44125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>44630</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>45014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>43627</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43913</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>43951</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44018</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44208</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>44526</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>44580</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44796</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44806</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44818</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43391</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43476</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43495</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43657</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>43727</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>43731</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>43807</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>43816</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>43857</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4110,7 +4110,7 @@
         <v>43858</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>43858</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>43896</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>43899</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>43906</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43913</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44067</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44166</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44168</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44208</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44208</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44208</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44258</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>44300</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>44369</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>44407</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>44425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>44440</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>44460</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>44476</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>44476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         <v>44476</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>44526</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>44526</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>44526</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>44586</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>44643</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>44643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44676</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         <v>44676</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44694</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44761</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44806</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>44825</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>44825</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>44825</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>44956</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>44966</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>45033</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>45048</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>45070</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>45085</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>45089</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>45126</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
